--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275A824-6085-45CC-B812-1C64B2AB753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7527090-1C91-4291-B609-AD81EE9AE4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -45,7 +45,7 @@
     <t>Link</t>
   </si>
   <si>
-    <t>C:\Projects\BipedProject\Bibliography\Consept\Knees\IROS22.pdf</t>
+    <t>IROS22.pdf</t>
   </si>
   <si>
     <t>Four Bar Knees Study</t>
@@ -62,6 +62,34 @@
   </si>
   <si>
     <t>Aikaterini Smyrli</t>
+  </si>
+  <si>
+    <t>icra22.pdf</t>
+  </si>
+  <si>
+    <t>22.01.24</t>
+  </si>
+  <si>
+    <t>This paper studies the passive biped walker with knees and biomimetic. Here you can find:
+1) Model description and viscoelastic kneecap stop model
+2) The fact that foot shape affects the direction of the moments acting on the joint
+3) Differential algebraic equation of the model 
+4) Design investigation of robot parameters</t>
+  </si>
+  <si>
+    <t>ICRA20a.pdf</t>
+  </si>
+  <si>
+    <t>Optimal foot shape study</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper introduces a methodology for arbitary foot shape generation in the passive walking dynamics
+1) Calculation of algebraic constraint vector and constraint Jacobian matrix for arbitary foot shape
+2) Explanation of the only one differentiation constraint vector for algebraic equation solution 
+3) Methodology for foot shape selection based on human-like ankle trajectory </t>
   </si>
 </sst>
 </file>
@@ -132,7 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -150,6 +179,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -160,6 +192,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -185,15 +223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>53341</xdr:colOff>
+      <xdr:colOff>178847</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>425144</xdr:rowOff>
+      <xdr:rowOff>326532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1325881</xdr:colOff>
+      <xdr:colOff>1767391</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1219232</xdr:rowOff>
+      <xdr:rowOff>1317812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -216,8 +254,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6469381" y="684224"/>
-          <a:ext cx="1272540" cy="794088"/>
+          <a:off x="6588612" y="586508"/>
+          <a:ext cx="1588544" cy="991280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>251012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1864658</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1230169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9827DB3D-B67A-BEAE-B587-C558AB2D619C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6499411" y="2070847"/>
+          <a:ext cx="1775012" cy="979157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1850906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1039906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E62EDAB-F57B-19E5-BA43-36E526584E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6741459" y="3316941"/>
+          <a:ext cx="1707471" cy="986118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,27 +618,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="6" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -524,7 +650,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -532,22 +658,71 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="13"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="Consept/Knees/icra22.pdf" xr:uid="{75F98B0C-0984-4874-BC3B-096D937F87CA}"/>
+    <hyperlink ref="F2" r:id="rId2" display="Consept/Knees/IROS22.pdf" xr:uid="{F85D353C-FDDE-414F-BAC2-16A8829CF34C}"/>
+    <hyperlink ref="F4" r:id="rId3" display="Consept/NoKnees/ICRA20a.pdf" xr:uid="{174A8F63-5FDC-48A0-AE80-216F13BA6812}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7527090-1C91-4291-B609-AD81EE9AE4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35165DF5-2592-4CFC-99BC-AB5D7B7C76E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -90,6 +90,21 @@
 1) Calculation of algebraic constraint vector and constraint Jacobian matrix for arbitary foot shape
 2) Explanation of the only one differentiation constraint vector for algebraic equation solution 
 3) Methodology for foot shape selection based on human-like ankle trajectory </t>
+  </si>
+  <si>
+    <t>JBE21.pdf</t>
+  </si>
+  <si>
+    <t>22.01.22</t>
+  </si>
+  <si>
+    <t>In the biped walking model is completely investigated. Here you can find
+1)  Walking phases and events description
+2) Model structure and the parameters
+3) Gait function definition
+4) Gait stability definition
+5) Nominal model for opimal stability
+6) Effect of the parameter variations and conclutions</t>
   </si>
 </sst>
 </file>
@@ -344,6 +359,50 @@
         <a:xfrm>
           <a:off x="6741459" y="3316941"/>
           <a:ext cx="1707471" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1792941</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1681585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1B6C7F-BF85-6740-8C8D-52293B58C3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6750424" y="4831976"/>
+          <a:ext cx="1640541" cy="1538150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,6 +764,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="13"/>
       <c r="D7" s="2"/>
@@ -720,9 +793,10 @@
     <hyperlink ref="F3" r:id="rId1" display="Consept/Knees/icra22.pdf" xr:uid="{75F98B0C-0984-4874-BC3B-096D937F87CA}"/>
     <hyperlink ref="F2" r:id="rId2" display="Consept/Knees/IROS22.pdf" xr:uid="{F85D353C-FDDE-414F-BAC2-16A8829CF34C}"/>
     <hyperlink ref="F4" r:id="rId3" display="Consept/NoKnees/ICRA20a.pdf" xr:uid="{174A8F63-5FDC-48A0-AE80-216F13BA6812}"/>
+    <hyperlink ref="F5" r:id="rId4" display="Consept/NoKnees/JBE21.pdf" xr:uid="{E99D45FA-A644-4099-AC49-E717FFD759E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35165DF5-2592-4CFC-99BC-AB5D7B7C76E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B62CC-CC8E-4A2F-8A16-AB8C2D242526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -105,6 +105,46 @@
 4) Gait stability definition
 5) Nominal model for opimal stability
 6) Effect of the parameter variations and conclutions</t>
+  </si>
+  <si>
+    <t>Smyrli_thesis_final.pdf</t>
+  </si>
+  <si>
+    <t>22.01.25</t>
+  </si>
+  <si>
+    <t>Biped robot conscept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this thesis you can find: 
+1) Insertion of constraints using lagrange multipliers
+2) Parameterization analisys + analysis of the parameters effect
+3) Introduction to poincare illustration
+4) Model equations
+5)  Phase alteration conditions
+6)  Control of the robot and fully actuated model based system in order to determine wich of the DoFs are important to have actuation
+7) Insertion non linear p-v terms in the control
+</t>
+  </si>
+  <si>
+    <t>Vasileiou_Thesis_2019.pdf</t>
+  </si>
+  <si>
+    <t>Vasileiou Christos</t>
+  </si>
+  <si>
+    <t>Biped robot manufacturing</t>
+  </si>
+  <si>
+    <t>In this thesis you can find
+1) Dimension scaling analysis
+2)  Contact modeling, Friction modeling (stribeck model etc.), Stress and dynamic loading theory
+3) Adams modeling theory 
+4) Design specifications and design methods
+5) Loading profiles extraction
+6) Robastness study (k,b, μ, L deviations) of the model using Adams
+7) Manufacturing methods and subsystem validation
+8) Experimental setup description</t>
   </si>
 </sst>
 </file>
@@ -175,7 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +254,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -403,6 +444,50 @@
         <a:xfrm>
           <a:off x="6750424" y="4831976"/>
           <a:ext cx="1640541" cy="1538150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107579</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>457201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1835761</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1882588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733F6F24-3346-4DB6-093F-BB86D1D89A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705603" y="6974542"/>
+          <a:ext cx="1728182" cy="1425387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,20 +762,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="6" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="28" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -765,6 +850,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -778,15 +866,261 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="13"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="3"/>
+    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
       <c r="D9" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -794,9 +1128,11 @@
     <hyperlink ref="F2" r:id="rId2" display="Consept/Knees/IROS22.pdf" xr:uid="{F85D353C-FDDE-414F-BAC2-16A8829CF34C}"/>
     <hyperlink ref="F4" r:id="rId3" display="Consept/NoKnees/ICRA20a.pdf" xr:uid="{174A8F63-5FDC-48A0-AE80-216F13BA6812}"/>
     <hyperlink ref="F5" r:id="rId4" display="Consept/NoKnees/JBE21.pdf" xr:uid="{E99D45FA-A644-4099-AC49-E717FFD759E2}"/>
+    <hyperlink ref="F6" r:id="rId5" display="Consept/NoKnees/Smyrli_thesis_final.pdf" xr:uid="{18718150-0A3D-4F8B-990C-F7D85497D9BD}"/>
+    <hyperlink ref="F7" r:id="rId6" display="Consept/NoKnees/Vasileiou_Thesis_2019.pdf" xr:uid="{42DB3B71-B4CF-498E-A846-5EACFC5F9B67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B62CC-CC8E-4A2F-8A16-AB8C2D242526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A9B9-F2C3-4A72-92C4-B2A8D684A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bibliography" sheetId="1" r:id="rId1"/>
+    <sheet name="Byped robot names" sheetId="3" r:id="rId2"/>
+    <sheet name="Keywords" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -145,6 +147,49 @@
 6) Robastness study (k,b, μ, L deviations) of the model using Adams
 7) Manufacturing methods and subsystem validation
 8) Experimental setup description</t>
+  </si>
+  <si>
+    <t>The Cornell Biped</t>
+  </si>
+  <si>
+    <t>The Delft Biped</t>
+  </si>
+  <si>
+    <t>The MIT Learning Biped</t>
+  </si>
+  <si>
+    <t>The Cornell Passive Biped</t>
+  </si>
+  <si>
+    <t>McGeer'ss Capstone Design</t>
+  </si>
+  <si>
+    <t>Jerry Pratt's tow - dimensional walking robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Flamingo </t>
+  </si>
+  <si>
+    <t>Dynamically controled motion</t>
+  </si>
+  <si>
+    <t>3D Biped with knees and arms</t>
+  </si>
+  <si>
+    <t>22.01.26</t>
+  </si>
+  <si>
+    <t>Collins, Ruina</t>
+  </si>
+  <si>
+    <t>CollinsRuinaPassiveLegsKnees.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper you can find:
+1)  Use of arms to negate yaw induced by leg swinging.
+2)  Lateral - swinging arms to stabilize side-to-side lean.
+3) Collisional indeterminacy rejection using hinged arcs (Soft heel design)  (This design can be modified for our application using as spring - rubber) 
+</t>
   </si>
 </sst>
 </file>
@@ -496,6 +541,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1844398</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2312895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D17B2EE-B379-39AA-9020-50307D7B984E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7243482" y="9144001"/>
+          <a:ext cx="1754751" cy="2160494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1882588</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1345356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADD198B-A5AF-ABDC-D6B5-4403494E3525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7252446" y="11591364"/>
+          <a:ext cx="1783977" cy="1210886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -764,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +908,7 @@
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="28" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -900,8 +1033,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="14"/>
+    <row r="8" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
@@ -1130,9 +1277,86 @@
     <hyperlink ref="F5" r:id="rId4" display="Consept/NoKnees/JBE21.pdf" xr:uid="{E99D45FA-A644-4099-AC49-E717FFD759E2}"/>
     <hyperlink ref="F6" r:id="rId5" display="Consept/NoKnees/Smyrli_thesis_final.pdf" xr:uid="{18718150-0A3D-4F8B-990C-F7D85497D9BD}"/>
     <hyperlink ref="F7" r:id="rId6" display="Consept/NoKnees/Vasileiou_Thesis_2019.pdf" xr:uid="{42DB3B71-B4CF-498E-A846-5EACFC5F9B67}"/>
+    <hyperlink ref="F8" r:id="rId7" display="Manufacturers/CollinsRuinaPassiveLegsKnees.pdf" xr:uid="{E03437DA-8456-4E3D-A8B2-249AE9844B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA8682-672A-4E95-AC5A-8804F6AFB6B8}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDA881-ECA0-4B5D-A1E8-7BBE47D7D9F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A9B9-F2C3-4A72-92C4-B2A8D684A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07078751-8852-4F75-839C-3EB9EDBD7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliography" sheetId="1" r:id="rId1"/>
     <sheet name="Byped robot names" sheetId="3" r:id="rId2"/>
-    <sheet name="Keywords" sheetId="4" r:id="rId3"/>
+    <sheet name="Actuators" sheetId="4" r:id="rId3"/>
+    <sheet name="Foot design" sheetId="5" r:id="rId4"/>
+    <sheet name="Joints" sheetId="6" r:id="rId5"/>
+    <sheet name="Other manufacturing ideas" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Optimal foot shape study</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t xml:space="preserve">This paper introduces a methodology for arbitary foot shape generation in the passive walking dynamics
@@ -161,16 +161,10 @@
     <t>The Cornell Passive Biped</t>
   </si>
   <si>
-    <t>McGeer'ss Capstone Design</t>
-  </si>
-  <si>
     <t>Jerry Pratt's tow - dimensional walking robot</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Flamingo </t>
-  </si>
-  <si>
-    <t>Dynamically controled motion</t>
   </si>
   <si>
     <t>3D Biped with knees and arms</t>
@@ -190,6 +184,38 @@
 2)  Lateral - swinging arms to stabilize side-to-side lean.
 3) Collisional indeterminacy rejection using hinged arcs (Soft heel design)  (This design can be modified for our application using as spring - rubber) 
 </t>
+  </si>
+  <si>
+    <t>22.01.27</t>
+  </si>
+  <si>
+    <t>McGeer's walker by Garcia</t>
+  </si>
+  <si>
+    <t>2D Design with hip and knees</t>
+  </si>
+  <si>
+    <t>Martijn Wisse</t>
+  </si>
+  <si>
+    <t>WisseBookMikeDesign.pdf</t>
+  </si>
+  <si>
+    <t>In this book you can find: 
+1) The testing no knees machine. (Intresting that the foot shapes are connected with screws
+2) Foot  design with switch (Allows to the controller to adapt ot the actual step time by resgistering the exact instant of heel strike
+3) We notice rectangular cross section in order the cables to pass through them
+4) Insertion of actuator requirment  (the actuators should not interfer with the passie swinging motion of the legs
+5)</t>
+  </si>
+  <si>
+    <t>Actuator type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Geared motor</t>
   </si>
 </sst>
 </file>
@@ -268,7 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +325,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -629,6 +657,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>911654</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1425389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA81577-3A48-703C-4092-46523966722E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7234517" y="13070541"/>
+          <a:ext cx="830972" cy="1362636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1079608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2188030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1358046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272766FC-5E2F-ED4A-4E60-C7EEE67BF010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242408" y="13175556"/>
+          <a:ext cx="1108422" cy="1190919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -895,27 +1011,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="28" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -927,7 +1043,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -935,16 +1051,16 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -952,16 +1068,16 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -969,305 +1085,465 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="14"/>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="14"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="14"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="13"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="13"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="13"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="13"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="13"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="13"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="13"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="13"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="13"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="13"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="13"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="13"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="13"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="13"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="13"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="13"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="13"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="13"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="13"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="13"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="13"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="13"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="13"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="13"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="13"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="13"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="13"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="13"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="13"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="13"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="13"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="13"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="13"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="13"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="13"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="13"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="13"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="13"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="13"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="13"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="13"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="13"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="13"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="13"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="13"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="13"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="13"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="13"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="13"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="13"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="13"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="13"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="13"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="13"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="13"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="13"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="13"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="13"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1278,10 +1554,11 @@
     <hyperlink ref="F6" r:id="rId5" display="Consept/NoKnees/Smyrli_thesis_final.pdf" xr:uid="{18718150-0A3D-4F8B-990C-F7D85497D9BD}"/>
     <hyperlink ref="F7" r:id="rId6" display="Consept/NoKnees/Vasileiou_Thesis_2019.pdf" xr:uid="{42DB3B71-B4CF-498E-A846-5EACFC5F9B67}"/>
     <hyperlink ref="F8" r:id="rId7" display="Manufacturers/CollinsRuinaPassiveLegsKnees.pdf" xr:uid="{E03437DA-8456-4E3D-A8B2-249AE9844B57}"/>
+    <hyperlink ref="F9" r:id="rId8" display="Manufacturers/WisseBookMikeDesign.pdf" xr:uid="{6C7A0374-5A96-4F7A-A122-2AA6BCDAE8E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1290,7 +1567,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,37 +1577,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1340,23 +1617,1906 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDA881-ECA0-4B5D-A1E8-7BBE47D7D9F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
+    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="14"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="14"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="14"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="14"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="14"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="14"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="14"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="14"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="14"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="14"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="14"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="14"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="14"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="14"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="14"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="14"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="14"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="14"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="14"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="14"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="14"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="14"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="14"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="14"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="14"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="14"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="14"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="14"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="14"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="14"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="14"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="14"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="14"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="14"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="14"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="14"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="14"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="14"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="14"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="14"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="14"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="14"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="14"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="14"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="14"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="14"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="14"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="14"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="14"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="14"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="14"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="14"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="14"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="14"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="14"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="14"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="14"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="9"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="14"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="14"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="14"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="14"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="14"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="14"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="14"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="14"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="9"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="14"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="14"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="14"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="14"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="14"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="14"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="14"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="14"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="14"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="14"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="14"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="14"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="14"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="14"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="14"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="14"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="14"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="14"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="14"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="14"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="14"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="14"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="9"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="14"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="9"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="14"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="9"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="14"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="9"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="14"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="9"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="14"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="14"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="9"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="14"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="14"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="14"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="14"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="9"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="14"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="14"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="9"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="14"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="9"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="14"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="9"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="14"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="9"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="14"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="9"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="14"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="9"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="14"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="9"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="14"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="9"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="14"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="9"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="14"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="9"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="14"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="9"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="14"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="9"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="14"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="9"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="14"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="9"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="14"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="14"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="9"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="14"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="9"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="14"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="9"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="14"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="9"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="14"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="9"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="14"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="9"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="14"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="9"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="14"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="9"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="14"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="9"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="14"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="9"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="14"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="9"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="14"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="9"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="14"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="9"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="14"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="9"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="14"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="9"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="14"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="9"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="14"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="9"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="14"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="9"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="14"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="9"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="14"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="9"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="14"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="9"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="14"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="9"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="14"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="9"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="14"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="9"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="14"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="9"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="14"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="9"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="14"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="9"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="14"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="9"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="14"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="9"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="14"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="9"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="14"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="9"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="14"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="9"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="14"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="9"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="14"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="9"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="14"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="14"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="9"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="14"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="9"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="14"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="9"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="14"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="9"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="14"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="9"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="14"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="9"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="14"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="9"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="14"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="9"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="14"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="9"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="14"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="9"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="14"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="9"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="14"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="9"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="14"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="9"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="14"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="9"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="14"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="9"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="14"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="9"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="14"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="9"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="14"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="9"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="14"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="9"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="14"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="9"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="14"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="9"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="14"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="9"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="14"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="9"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="14"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="9"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="14"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="9"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="14"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="9"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="14"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="9"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="14"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="9"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="14"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="9"/>
+      <c r="B321" s="9"/>
+      <c r="C321" s="14"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="9"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="14"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="9"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="14"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="9"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="14"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="9"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="14"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="9"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="14"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="9"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="14"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="9"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="14"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="9"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="14"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="9"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="14"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="9"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="14"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="9"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="14"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="9"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="14"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="9"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="14"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="9"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="14"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="9"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="14"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="9"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="14"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="9"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="14"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="9"/>
+      <c r="B339" s="9"/>
+      <c r="C339" s="14"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="9"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="14"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="9"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="14"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="9"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="14"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="9"/>
+      <c r="B343" s="9"/>
+      <c r="C343" s="14"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="9"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="14"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="9"/>
+      <c r="B345" s="9"/>
+      <c r="C345" s="14"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="9"/>
+      <c r="B346" s="9"/>
+      <c r="C346" s="14"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="9"/>
+      <c r="B347" s="9"/>
+      <c r="C347" s="14"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="9"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="14"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="9"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="14"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="9"/>
+      <c r="B350" s="9"/>
+      <c r="C350" s="14"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="9"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="14"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="13"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="13"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="13"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="13"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C356" s="13"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="13"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="13"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="13"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="13"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="13"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="13"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="13"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C364" s="13"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="13"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="13"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="13"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="13"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="13"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C370" s="13"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C371" s="13"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C372" s="13"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C373" s="13"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C374" s="13"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C375" s="13"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C376" s="13"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C377" s="13"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C378" s="13"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F256-3B44-438C-B09D-A5A5EBB93BAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152586C-A782-4C8C-BD4A-33A7E12CE8F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC1BB6-B019-40E0-AB58-E33C7A1DD0AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07078751-8852-4F75-839C-3EB9EDBD7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69AAC9D-A035-4D60-9683-072CF093C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliography" sheetId="1" r:id="rId1"/>
     <sheet name="Byped robot names" sheetId="3" r:id="rId2"/>
     <sheet name="Actuators" sheetId="4" r:id="rId3"/>
-    <sheet name="Foot design" sheetId="5" r:id="rId4"/>
-    <sheet name="Joints" sheetId="6" r:id="rId5"/>
-    <sheet name="Other manufacturing ideas" sheetId="7" r:id="rId6"/>
+    <sheet name="Sensors" sheetId="8" r:id="rId4"/>
+    <sheet name="Foot design" sheetId="5" r:id="rId5"/>
+    <sheet name="Joints" sheetId="6" r:id="rId6"/>
+    <sheet name="Other manufacturing ideas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -201,14 +202,6 @@
     <t>WisseBookMikeDesign.pdf</t>
   </si>
   <si>
-    <t>In this book you can find: 
-1) The testing no knees machine. (Intresting that the foot shapes are connected with screws
-2) Foot  design with switch (Allows to the controller to adapt ot the actual step time by resgistering the exact instant of heel strike
-3) We notice rectangular cross section in order the cables to pass through them
-4) Insertion of actuator requirment  (the actuators should not interfer with the passie swinging motion of the legs
-5)</t>
-  </si>
-  <si>
     <t>Actuator type</t>
   </si>
   <si>
@@ -216,6 +209,78 @@
   </si>
   <si>
     <t>Geared motor</t>
+  </si>
+  <si>
+    <t>Possitive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are commonly used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geared motor interfere with </t>
+  </si>
+  <si>
+    <t>McKibben muscles</t>
+  </si>
+  <si>
+    <t>Direct drive torque motors</t>
+  </si>
+  <si>
+    <t>Pneumatic cylinders</t>
+  </si>
+  <si>
+    <t>The muscles behave as linear springs. 
+The spring constant is proportional to the muscle pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Easy to construct inhouse
+2) We can find commercially availabe
+3) The actuation system can be lightweight ~ 7 kg robot leads to 1 kg actuation system
+</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Hyperextension stop and locking mechanism (latch)</t>
+  </si>
+  <si>
+    <t>It is released just after the start of swing phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Can only provide tension force
+2) Noticeable hysterisis-loop (losses mainly due to friction between the scissoring threads)
+3) Needs pressure regulating system
+4) Needs CO2-bulb 
+5) Needs short response time in order to make it possible to excecute presure control action (0.6 sec)
+6) Unstable for continuous control
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure regulator principles available:
+1) Indirectly controled pressure regulator (Flapper-Nozzle type). Fast and accurate control but large with high gas  consumption
+2) Directly controlled (piston type). Small and lightweight but not accurate enough
+</t>
+  </si>
+  <si>
+    <t>In this book you can find: 
+1) The testing no knees machine. (Intresting that the foot shapes are connected with screws
+2) Foot  design with switch (Allows to the controller to adapt ot the actual step time by resgistering the exact instant of heel strike
+3) We notice rectangular cross section in order the cables to pass through them
+4) Insertion of actuator requirment  (the actuators should not interfer with the passie swinging motion of the legs
+5) McKibben muscle implementation (for Mike construction)
+6) Introduces bisecting hip mechanim using auxiliary axle connected with the legs with one straight and one cross-over chain.
+7) In general here the use of knees seems to be only in order to avoid ----- with the ground
+8) CO2 flow throught the pneumatic system is a slow first order system with time constant ~ 0.25s
+9) The experiment is near to the simulation. First knee strike occures and then hill strike.
+10) Observation that the knees of the outer legs bend less than predcted by the simulation due to friction and dumping
+11) In order to measure stability they measure the velocity just before the heel strike. This eliminates the transient oscilations due to the hill strike
+12) Insertion of robustness study versus steps (They can be modeled as temporal increament of the slope)
+13) Max CoT = 0.32
+14) In this book you can also find information about Denise robot</t>
   </si>
 </sst>
 </file>
@@ -286,7 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,7 +391,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -745,6 +813,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133830</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1459327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1036183</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2711183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FC3F50-996C-AE80-386E-7EDC3683AAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7287665" y="14467115"/>
+          <a:ext cx="902353" cy="1251856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3080657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1375005</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4744224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08B89FB-61AC-5FF4-ADB4-F194EBD06209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7270378" y="16088445"/>
+          <a:ext cx="1258462" cy="1663567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1398494</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1165413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2246945</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3141714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B0C818-525E-50F4-4406-517736E218FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8552329" y="14173201"/>
+          <a:ext cx="848451" cy="1976301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3263154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3201008</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4536142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156AC3AF-A5CC-177F-B3C7-C2CDDB0630A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677834" y="16270942"/>
+          <a:ext cx="1677009" cy="1272988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2456330</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3214030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2303929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A942808-F18A-E902-D5CA-A6DD975E08AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610165" y="13205012"/>
+          <a:ext cx="757700" cy="2106705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1013,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1311,7 @@
     <col min="2" max="2" width="15.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="69.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="54.77734375" style="10" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1166,7 +1454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1462,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
@@ -1617,1862 +1905,4639 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDA881-ECA0-4B5D-A1E8-7BBE47D7D9F9}">
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>47</v>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="163.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="14"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="14"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="14"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="14"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="14"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="14"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="14"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="14"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="14"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="14"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="14"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="14"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="14"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="14"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="14"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="14"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="14"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="14"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="14"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="14"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="14"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="14"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="14"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="14"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="14"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="14"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="14"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="14"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="14"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="14"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="14"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="14"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="14"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="14"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="14"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="14"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="14"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="14"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="14"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="14"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="14"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="14"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="14"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="14"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="14"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="14"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="14"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="14"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="14"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="14"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="14"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="14"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="14"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="14"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="14"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="14"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="14"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="14"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="14"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="14"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="14"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="14"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="14"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="14"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="14"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="14"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="14"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="14"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="14"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="14"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="14"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="14"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="14"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="14"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="14"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="14"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="14"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="14"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="14"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="14"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="14"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="14"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="14"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="14"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="14"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="14"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="14"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="14"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="14"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="14"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="14"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="14"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="14"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="14"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="14"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="14"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="14"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="14"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="14"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="14"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="14"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="14"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="14"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="14"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="14"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="14"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="14"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="14"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="14"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="14"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="14"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="14"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="14"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="14"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="14"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="14"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="14"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="14"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="14"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="14"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="14"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="14"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="14"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="14"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="14"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="14"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="14"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="14"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="14"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="14"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="14"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="14"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="14"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="14"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="14"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="14"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="14"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="14"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="14"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="14"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="14"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="14"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="14"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="14"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="14"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="14"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="14"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="14"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="12"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="14"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="14"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="14"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="14"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="14"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="14"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="14"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="14"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="14"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="14"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="14"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="14"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="14"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="14"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="12"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="14"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="14"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="14"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="14"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="14"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="14"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="14"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="14"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="14"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="14"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="14"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="14"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="14"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
-      <c r="B270" s="9"/>
-      <c r="C270" s="14"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="14"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="14"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="14"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="14"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="14"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="14"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="14"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="14"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="14"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="14"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="14"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="14"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="14"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="14"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="14"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="14"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="14"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="14"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="14"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="14"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="14"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="14"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="14"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="14"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="14"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="14"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="14"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="14"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="14"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="14"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="14"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="12"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="14"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="14"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="14"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="14"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="14"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="14"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="14"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="14"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="14"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="14"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="14"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="14"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="14"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="14"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="14"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="9"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="14"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="14"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="14"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="14"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="14"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="14"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B322" s="12"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="14"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="12"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="14"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="14"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B325" s="12"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="9"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="14"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B326" s="12"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="14"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="12"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="14"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="14"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="14"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="14"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="14"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="14"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="14"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B334" s="12"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="14"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B335" s="12"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="14"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B336" s="12"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="14"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B337" s="12"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="14"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="14"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="14"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
-      <c r="B341" s="9"/>
-      <c r="C341" s="14"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B341" s="12"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
-      <c r="B342" s="9"/>
-      <c r="C342" s="14"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="14"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
-      <c r="B344" s="9"/>
-      <c r="C344" s="14"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
-      <c r="B345" s="9"/>
-      <c r="C345" s="14"/>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
-      <c r="B346" s="9"/>
-      <c r="C346" s="14"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
-      <c r="B347" s="9"/>
-      <c r="C347" s="14"/>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B347" s="12"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
-      <c r="B348" s="9"/>
-      <c r="C348" s="14"/>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="14"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="14"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="9"/>
-      <c r="B351" s="9"/>
-      <c r="C351" s="14"/>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C352" s="13"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C353" s="13"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C354" s="13"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C355" s="13"/>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C356" s="13"/>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C357" s="13"/>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C358" s="13"/>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C359" s="13"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C360" s="13"/>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="13"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C362" s="13"/>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C363" s="13"/>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C364" s="13"/>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C365" s="13"/>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C366" s="13"/>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C367" s="13"/>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C368" s="13"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C369" s="13"/>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C370" s="13"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="13"/>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C372" s="13"/>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C373" s="13"/>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C374" s="13"/>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C375" s="13"/>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C376" s="13"/>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C377" s="13"/>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C378" s="13"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="9"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="9"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="12"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="12"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="12"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B372" s="12"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="12"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="12"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="12"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="12"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B377" s="12"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B378" s="12"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B379" s="12"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B380" s="12"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="12"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B382" s="12"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B383" s="12"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B384" s="12"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B386" s="12"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B387" s="12"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B388" s="12"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="12"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B390" s="12"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B391" s="12"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="12"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="12"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B394" s="12"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B395" s="12"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B396" s="12"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B397" s="12"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="12"/>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B398" s="12"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B399" s="12"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B400" s="12"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="12"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="12"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="12"/>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="12"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="12"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B405" s="12"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B406" s="12"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B407" s="12"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="12"/>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B408" s="12"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="12"/>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B409" s="12"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="12"/>
+      <c r="E409" s="12"/>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B410" s="12"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="12"/>
+      <c r="E410" s="12"/>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B411" s="12"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B412" s="12"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B413" s="12"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="12"/>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B414" s="12"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="12"/>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B415" s="12"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="12"/>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B416" s="12"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="12"/>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B417" s="12"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="12"/>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B418" s="12"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="12"/>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B419" s="12"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="12"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B420" s="12"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="12"/>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B421" s="12"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="12"/>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B422" s="12"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="12"/>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B423" s="12"/>
+      <c r="C423" s="12"/>
+      <c r="D423" s="12"/>
+      <c r="E423" s="12"/>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B424" s="12"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="12"/>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B425" s="12"/>
+      <c r="C425" s="12"/>
+      <c r="D425" s="12"/>
+      <c r="E425" s="12"/>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B426" s="12"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12"/>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B427" s="12"/>
+      <c r="C427" s="12"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="12"/>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B428" s="12"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="12"/>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B429" s="12"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B430" s="12"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="12"/>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B432" s="12"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="12"/>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B433" s="12"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="12"/>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B434" s="12"/>
+      <c r="C434" s="12"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="12"/>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B435" s="12"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B436" s="12"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B437" s="12"/>
+      <c r="C437" s="12"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="12"/>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B438" s="12"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B439" s="12"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B440" s="12"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B441" s="12"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B442" s="12"/>
+      <c r="C442" s="12"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B443" s="12"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="12"/>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B444" s="12"/>
+      <c r="C444" s="12"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="12"/>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B445" s="12"/>
+      <c r="C445" s="12"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="12"/>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B446" s="12"/>
+      <c r="C446" s="12"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="12"/>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B447" s="12"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B448" s="12"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B449" s="12"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="12"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B451" s="12"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B452" s="12"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B453" s="12"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="12"/>
+      <c r="E453" s="12"/>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B454" s="12"/>
+      <c r="C454" s="12"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="12"/>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B455" s="12"/>
+      <c r="C455" s="12"/>
+      <c r="D455" s="12"/>
+      <c r="E455" s="12"/>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="12"/>
+      <c r="C456" s="12"/>
+      <c r="D456" s="12"/>
+      <c r="E456" s="12"/>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="12"/>
+      <c r="C457" s="12"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="12"/>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="12"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B459" s="12"/>
+      <c r="C459" s="12"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B460" s="12"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B462" s="12"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B463" s="12"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B464" s="12"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="12"/>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B465" s="12"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="12"/>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B466" s="12"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B467" s="12"/>
+      <c r="C467" s="12"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="12"/>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B468" s="12"/>
+      <c r="C468" s="12"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="12"/>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B469" s="12"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B470" s="12"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B471" s="12"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B472" s="12"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B473" s="12"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B474" s="12"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B475" s="12"/>
+      <c r="C475" s="12"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="12"/>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B476" s="12"/>
+      <c r="C476" s="12"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="12"/>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B477" s="12"/>
+      <c r="C477" s="12"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="12"/>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B478" s="12"/>
+      <c r="C478" s="12"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B479" s="12"/>
+      <c r="C479" s="12"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="12"/>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B480" s="12"/>
+      <c r="C480" s="12"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="12"/>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B481" s="12"/>
+      <c r="C481" s="12"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="12"/>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B482" s="12"/>
+      <c r="C482" s="12"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12"/>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B483" s="12"/>
+      <c r="C483" s="12"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="12"/>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B484" s="12"/>
+      <c r="C484" s="12"/>
+      <c r="D484" s="12"/>
+      <c r="E484" s="12"/>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B485" s="12"/>
+      <c r="C485" s="12"/>
+      <c r="D485" s="12"/>
+      <c r="E485" s="12"/>
+    </row>
+    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B486" s="12"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="12"/>
+      <c r="E486" s="12"/>
+    </row>
+    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B487" s="12"/>
+      <c r="C487" s="12"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="12"/>
+    </row>
+    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B488" s="12"/>
+      <c r="C488" s="12"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="12"/>
+    </row>
+    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B489" s="12"/>
+      <c r="C489" s="12"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="12"/>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B490" s="12"/>
+      <c r="C490" s="12"/>
+      <c r="D490" s="12"/>
+      <c r="E490" s="12"/>
+    </row>
+    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B491" s="12"/>
+      <c r="C491" s="12"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="12"/>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B492" s="12"/>
+      <c r="C492" s="12"/>
+      <c r="D492" s="12"/>
+      <c r="E492" s="12"/>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B493" s="12"/>
+      <c r="C493" s="12"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="12"/>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B494" s="12"/>
+      <c r="C494" s="12"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="12"/>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B495" s="12"/>
+      <c r="C495" s="12"/>
+      <c r="D495" s="12"/>
+      <c r="E495" s="12"/>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="12"/>
+      <c r="C496" s="12"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="12"/>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B497" s="12"/>
+      <c r="C497" s="12"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="12"/>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B498" s="12"/>
+      <c r="C498" s="12"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B499" s="12"/>
+      <c r="C499" s="12"/>
+      <c r="D499" s="12"/>
+      <c r="E499" s="12"/>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B500" s="12"/>
+      <c r="C500" s="12"/>
+      <c r="D500" s="12"/>
+      <c r="E500" s="12"/>
+    </row>
+    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B501" s="12"/>
+      <c r="C501" s="12"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="12"/>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="12"/>
+      <c r="C502" s="12"/>
+      <c r="D502" s="12"/>
+      <c r="E502" s="12"/>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B503" s="12"/>
+      <c r="C503" s="12"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="12"/>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B504" s="12"/>
+      <c r="C504" s="12"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="12"/>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B505" s="12"/>
+      <c r="C505" s="12"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="12"/>
+    </row>
+    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B506" s="12"/>
+      <c r="C506" s="12"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="12"/>
+    </row>
+    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B507" s="12"/>
+      <c r="C507" s="12"/>
+      <c r="D507" s="12"/>
+      <c r="E507" s="12"/>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B508" s="12"/>
+      <c r="C508" s="12"/>
+      <c r="D508" s="12"/>
+      <c r="E508" s="12"/>
+    </row>
+    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B509" s="12"/>
+      <c r="C509" s="12"/>
+      <c r="D509" s="12"/>
+      <c r="E509" s="12"/>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B510" s="12"/>
+      <c r="C510" s="12"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="12"/>
+    </row>
+    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B511" s="12"/>
+      <c r="C511" s="12"/>
+      <c r="D511" s="12"/>
+      <c r="E511" s="12"/>
+    </row>
+    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B512" s="12"/>
+      <c r="C512" s="12"/>
+      <c r="D512" s="12"/>
+      <c r="E512" s="12"/>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B513" s="12"/>
+      <c r="C513" s="12"/>
+      <c r="D513" s="12"/>
+      <c r="E513" s="12"/>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B514" s="12"/>
+      <c r="C514" s="12"/>
+      <c r="D514" s="12"/>
+      <c r="E514" s="12"/>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B515" s="12"/>
+      <c r="C515" s="12"/>
+      <c r="D515" s="12"/>
+      <c r="E515" s="12"/>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B516" s="12"/>
+      <c r="C516" s="12"/>
+      <c r="D516" s="12"/>
+      <c r="E516" s="12"/>
+    </row>
+    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B517" s="12"/>
+      <c r="C517" s="12"/>
+      <c r="D517" s="12"/>
+      <c r="E517" s="12"/>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B518" s="12"/>
+      <c r="C518" s="12"/>
+      <c r="D518" s="12"/>
+      <c r="E518" s="12"/>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B519" s="12"/>
+      <c r="C519" s="12"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="12"/>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B520" s="12"/>
+      <c r="C520" s="12"/>
+      <c r="D520" s="12"/>
+      <c r="E520" s="12"/>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B521" s="12"/>
+      <c r="C521" s="12"/>
+      <c r="D521" s="12"/>
+      <c r="E521" s="12"/>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B522" s="12"/>
+      <c r="C522" s="12"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="12"/>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B523" s="12"/>
+      <c r="C523" s="12"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="12"/>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B524" s="12"/>
+      <c r="C524" s="12"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B525" s="12"/>
+      <c r="C525" s="12"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="12"/>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B526" s="12"/>
+      <c r="C526" s="12"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="12"/>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B527" s="12"/>
+      <c r="C527" s="12"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B528" s="12"/>
+      <c r="C528" s="12"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="12"/>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B529" s="12"/>
+      <c r="C529" s="12"/>
+      <c r="D529" s="12"/>
+      <c r="E529" s="12"/>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B530" s="12"/>
+      <c r="C530" s="12"/>
+      <c r="D530" s="12"/>
+      <c r="E530" s="12"/>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B531" s="12"/>
+      <c r="C531" s="12"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="12"/>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B532" s="12"/>
+      <c r="C532" s="12"/>
+      <c r="D532" s="12"/>
+      <c r="E532" s="12"/>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B533" s="12"/>
+      <c r="C533" s="12"/>
+      <c r="D533" s="12"/>
+      <c r="E533" s="12"/>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B534" s="12"/>
+      <c r="C534" s="12"/>
+      <c r="D534" s="12"/>
+      <c r="E534" s="12"/>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B535" s="12"/>
+      <c r="C535" s="12"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="12"/>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B536" s="12"/>
+      <c r="C536" s="12"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="12"/>
+    </row>
+    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B537" s="12"/>
+      <c r="C537" s="12"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="12"/>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B538" s="12"/>
+      <c r="C538" s="12"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="12"/>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B539" s="12"/>
+      <c r="C539" s="12"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="12"/>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B540" s="12"/>
+      <c r="C540" s="12"/>
+      <c r="D540" s="12"/>
+      <c r="E540" s="12"/>
+    </row>
+    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="D541" s="14"/>
+      <c r="E541" s="14"/>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="D542" s="14"/>
+      <c r="E542" s="14"/>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="D543" s="14"/>
+      <c r="E543" s="14"/>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="D544" s="14"/>
+      <c r="E544" s="14"/>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="D545" s="14"/>
+      <c r="E545" s="14"/>
+    </row>
+    <row r="546" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="D546" s="14"/>
+      <c r="E546" s="14"/>
+    </row>
+    <row r="547" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="D547" s="14"/>
+      <c r="E547" s="14"/>
+    </row>
+    <row r="548" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="D548" s="14"/>
+      <c r="E548" s="14"/>
+    </row>
+    <row r="549" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="D549" s="14"/>
+      <c r="E549" s="14"/>
+    </row>
+    <row r="550" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="D550" s="14"/>
+      <c r="E550" s="14"/>
+    </row>
+    <row r="551" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="D551" s="14"/>
+      <c r="E551" s="14"/>
+    </row>
+    <row r="552" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="D552" s="14"/>
+      <c r="E552" s="14"/>
+    </row>
+    <row r="553" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="D553" s="14"/>
+      <c r="E553" s="14"/>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="D554" s="14"/>
+      <c r="E554" s="14"/>
+    </row>
+    <row r="555" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="D555" s="14"/>
+      <c r="E555" s="14"/>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="D556" s="14"/>
+      <c r="E556" s="14"/>
+    </row>
+    <row r="557" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="D557" s="14"/>
+      <c r="E557" s="14"/>
+    </row>
+    <row r="558" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="D558" s="14"/>
+      <c r="E558" s="14"/>
+    </row>
+    <row r="559" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="D559" s="14"/>
+      <c r="E559" s="14"/>
+    </row>
+    <row r="560" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="D560" s="14"/>
+      <c r="E560" s="14"/>
+    </row>
+    <row r="561" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="D561" s="14"/>
+      <c r="E561" s="14"/>
+    </row>
+    <row r="562" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="D562" s="14"/>
+      <c r="E562" s="14"/>
+    </row>
+    <row r="563" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="D563" s="14"/>
+      <c r="E563" s="14"/>
+    </row>
+    <row r="564" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="D564" s="14"/>
+      <c r="E564" s="14"/>
+    </row>
+    <row r="565" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="D565" s="14"/>
+      <c r="E565" s="14"/>
+    </row>
+    <row r="566" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="D566" s="14"/>
+      <c r="E566" s="14"/>
+    </row>
+    <row r="567" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="D567" s="14"/>
+      <c r="E567" s="14"/>
+    </row>
+    <row r="568" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="D568" s="14"/>
+      <c r="E568" s="14"/>
+    </row>
+    <row r="569" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="D569" s="14"/>
+      <c r="E569" s="14"/>
+    </row>
+    <row r="570" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="D570" s="14"/>
+      <c r="E570" s="14"/>
+    </row>
+    <row r="571" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="D571" s="14"/>
+      <c r="E571" s="14"/>
+    </row>
+    <row r="572" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="D572" s="14"/>
+      <c r="E572" s="14"/>
+    </row>
+    <row r="573" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="D573" s="14"/>
+      <c r="E573" s="14"/>
+    </row>
+    <row r="574" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="D574" s="14"/>
+      <c r="E574" s="14"/>
+    </row>
+    <row r="575" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="D575" s="14"/>
+      <c r="E575" s="14"/>
+    </row>
+    <row r="576" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="D576" s="14"/>
+      <c r="E576" s="14"/>
+    </row>
+    <row r="577" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="D577" s="14"/>
+      <c r="E577" s="14"/>
+    </row>
+    <row r="578" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="D578" s="14"/>
+      <c r="E578" s="14"/>
+    </row>
+    <row r="579" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="D579" s="14"/>
+      <c r="E579" s="14"/>
+    </row>
+    <row r="580" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="D580" s="14"/>
+      <c r="E580" s="14"/>
+    </row>
+    <row r="581" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="D581" s="14"/>
+      <c r="E581" s="14"/>
+    </row>
+    <row r="582" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="D582" s="14"/>
+      <c r="E582" s="14"/>
+    </row>
+    <row r="583" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="D583" s="14"/>
+      <c r="E583" s="14"/>
+    </row>
+    <row r="584" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="D584" s="14"/>
+      <c r="E584" s="14"/>
+    </row>
+    <row r="585" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="D585" s="14"/>
+      <c r="E585" s="14"/>
+    </row>
+    <row r="586" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="D586" s="14"/>
+      <c r="E586" s="14"/>
+    </row>
+    <row r="587" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="D587" s="14"/>
+      <c r="E587" s="14"/>
+    </row>
+    <row r="588" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="D588" s="14"/>
+      <c r="E588" s="14"/>
+    </row>
+    <row r="589" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="D589" s="14"/>
+      <c r="E589" s="14"/>
+    </row>
+    <row r="590" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="D590" s="14"/>
+      <c r="E590" s="14"/>
+    </row>
+    <row r="591" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="D591" s="14"/>
+      <c r="E591" s="14"/>
+    </row>
+    <row r="592" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="D592" s="14"/>
+      <c r="E592" s="14"/>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="D593" s="14"/>
+      <c r="E593" s="14"/>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="D594" s="14"/>
+      <c r="E594" s="14"/>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="D595" s="14"/>
+      <c r="E595" s="14"/>
+    </row>
+    <row r="596" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="D596" s="14"/>
+      <c r="E596" s="14"/>
+    </row>
+    <row r="597" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="D597" s="14"/>
+      <c r="E597" s="14"/>
+    </row>
+    <row r="598" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="D598" s="14"/>
+      <c r="E598" s="14"/>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="D599" s="14"/>
+      <c r="E599" s="14"/>
+    </row>
+    <row r="600" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="D600" s="14"/>
+      <c r="E600" s="14"/>
+    </row>
+    <row r="601" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="D601" s="14"/>
+      <c r="E601" s="14"/>
+    </row>
+    <row r="602" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="D602" s="14"/>
+      <c r="E602" s="14"/>
+    </row>
+    <row r="603" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="D603" s="14"/>
+      <c r="E603" s="14"/>
+    </row>
+    <row r="604" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="D604" s="14"/>
+      <c r="E604" s="14"/>
+    </row>
+    <row r="605" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="D605" s="14"/>
+      <c r="E605" s="14"/>
+    </row>
+    <row r="606" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="D606" s="14"/>
+      <c r="E606" s="14"/>
+    </row>
+    <row r="607" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="D607" s="14"/>
+      <c r="E607" s="14"/>
+    </row>
+    <row r="608" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="D608" s="14"/>
+      <c r="E608" s="14"/>
+    </row>
+    <row r="609" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="D609" s="14"/>
+      <c r="E609" s="14"/>
+    </row>
+    <row r="610" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="D610" s="14"/>
+      <c r="E610" s="14"/>
+    </row>
+    <row r="611" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="D611" s="14"/>
+      <c r="E611" s="14"/>
+    </row>
+    <row r="612" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="D612" s="14"/>
+      <c r="E612" s="14"/>
+    </row>
+    <row r="613" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="D613" s="14"/>
+      <c r="E613" s="14"/>
+    </row>
+    <row r="614" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="D614" s="14"/>
+      <c r="E614" s="14"/>
+    </row>
+    <row r="615" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="D615" s="14"/>
+      <c r="E615" s="14"/>
+    </row>
+    <row r="616" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="D616" s="14"/>
+      <c r="E616" s="14"/>
+    </row>
+    <row r="617" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="D617" s="14"/>
+      <c r="E617" s="14"/>
+    </row>
+    <row r="618" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="D618" s="14"/>
+      <c r="E618" s="14"/>
+    </row>
+    <row r="619" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="D619" s="14"/>
+      <c r="E619" s="14"/>
+    </row>
+    <row r="620" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="D620" s="14"/>
+      <c r="E620" s="14"/>
+    </row>
+    <row r="621" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="D621" s="14"/>
+      <c r="E621" s="14"/>
+    </row>
+    <row r="622" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="D622" s="14"/>
+      <c r="E622" s="14"/>
+    </row>
+    <row r="623" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="D623" s="14"/>
+      <c r="E623" s="14"/>
+    </row>
+    <row r="624" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="D624" s="14"/>
+      <c r="E624" s="14"/>
+    </row>
+    <row r="625" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="D625" s="14"/>
+      <c r="E625" s="14"/>
+    </row>
+    <row r="626" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="D626" s="14"/>
+      <c r="E626" s="14"/>
+    </row>
+    <row r="627" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="D627" s="14"/>
+      <c r="E627" s="14"/>
+    </row>
+    <row r="628" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="D628" s="14"/>
+      <c r="E628" s="14"/>
+    </row>
+    <row r="629" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="D629" s="14"/>
+      <c r="E629" s="14"/>
+    </row>
+    <row r="630" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="D630" s="14"/>
+      <c r="E630" s="14"/>
+    </row>
+    <row r="631" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="D631" s="14"/>
+      <c r="E631" s="14"/>
+    </row>
+    <row r="632" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="D632" s="14"/>
+      <c r="E632" s="14"/>
+    </row>
+    <row r="633" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="D633" s="14"/>
+      <c r="E633" s="14"/>
+    </row>
+    <row r="634" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="D634" s="14"/>
+      <c r="E634" s="14"/>
+    </row>
+    <row r="635" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="D635" s="14"/>
+      <c r="E635" s="14"/>
+    </row>
+    <row r="636" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="D636" s="14"/>
+      <c r="E636" s="14"/>
+    </row>
+    <row r="637" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="D637" s="14"/>
+      <c r="E637" s="14"/>
+    </row>
+    <row r="638" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="D638" s="14"/>
+      <c r="E638" s="14"/>
+    </row>
+    <row r="639" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="D639" s="14"/>
+      <c r="E639" s="14"/>
+    </row>
+    <row r="640" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="D640" s="14"/>
+      <c r="E640" s="14"/>
+    </row>
+    <row r="641" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="D641" s="14"/>
+      <c r="E641" s="14"/>
+    </row>
+    <row r="642" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="D642" s="14"/>
+      <c r="E642" s="14"/>
+    </row>
+    <row r="643" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="D643" s="14"/>
+      <c r="E643" s="14"/>
+    </row>
+    <row r="644" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="D644" s="14"/>
+      <c r="E644" s="14"/>
+    </row>
+    <row r="645" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="D645" s="14"/>
+      <c r="E645" s="14"/>
+    </row>
+    <row r="646" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="D646" s="14"/>
+      <c r="E646" s="14"/>
+    </row>
+    <row r="647" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="D647" s="14"/>
+      <c r="E647" s="14"/>
+    </row>
+    <row r="648" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="D648" s="14"/>
+      <c r="E648" s="14"/>
+    </row>
+    <row r="649" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="D649" s="14"/>
+      <c r="E649" s="14"/>
+    </row>
+    <row r="650" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="D650" s="14"/>
+      <c r="E650" s="14"/>
+    </row>
+    <row r="651" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="D651" s="14"/>
+      <c r="E651" s="14"/>
+    </row>
+    <row r="652" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="D652" s="14"/>
+      <c r="E652" s="14"/>
+    </row>
+    <row r="653" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="D653" s="14"/>
+      <c r="E653" s="14"/>
+    </row>
+    <row r="654" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="D654" s="14"/>
+      <c r="E654" s="14"/>
+    </row>
+    <row r="655" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="D655" s="14"/>
+      <c r="E655" s="14"/>
+    </row>
+    <row r="656" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="D656" s="14"/>
+      <c r="E656" s="14"/>
+    </row>
+    <row r="657" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="D657" s="14"/>
+      <c r="E657" s="14"/>
+    </row>
+    <row r="658" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="D658" s="14"/>
+      <c r="E658" s="14"/>
+    </row>
+    <row r="659" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="D659" s="14"/>
+      <c r="E659" s="14"/>
+    </row>
+    <row r="660" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="D660" s="14"/>
+      <c r="E660" s="14"/>
+    </row>
+    <row r="661" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="D661" s="14"/>
+      <c r="E661" s="14"/>
+    </row>
+    <row r="662" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="D662" s="14"/>
+      <c r="E662" s="14"/>
+    </row>
+    <row r="663" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="D663" s="14"/>
+      <c r="E663" s="14"/>
+    </row>
+    <row r="664" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="D664" s="14"/>
+      <c r="E664" s="14"/>
+    </row>
+    <row r="665" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="D665" s="14"/>
+      <c r="E665" s="14"/>
+    </row>
+    <row r="666" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="D666" s="14"/>
+      <c r="E666" s="14"/>
+    </row>
+    <row r="667" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="D667" s="14"/>
+      <c r="E667" s="14"/>
+    </row>
+    <row r="668" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="D668" s="14"/>
+      <c r="E668" s="14"/>
+    </row>
+    <row r="669" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="D669" s="14"/>
+      <c r="E669" s="14"/>
+    </row>
+    <row r="670" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="D670" s="14"/>
+      <c r="E670" s="14"/>
+    </row>
+    <row r="671" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="D671" s="14"/>
+      <c r="E671" s="14"/>
+    </row>
+    <row r="672" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="D672" s="14"/>
+      <c r="E672" s="14"/>
+    </row>
+    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="D673" s="14"/>
+      <c r="E673" s="14"/>
+    </row>
+    <row r="674" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="D674" s="14"/>
+      <c r="E674" s="14"/>
+    </row>
+    <row r="675" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="D675" s="14"/>
+      <c r="E675" s="14"/>
+    </row>
+    <row r="676" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="D676" s="14"/>
+      <c r="E676" s="14"/>
+    </row>
+    <row r="677" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="D677" s="14"/>
+      <c r="E677" s="14"/>
+    </row>
+    <row r="678" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="D678" s="14"/>
+      <c r="E678" s="14"/>
+    </row>
+    <row r="679" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B679" s="15"/>
+      <c r="C679" s="15"/>
+      <c r="D679" s="15"/>
+      <c r="E679" s="15"/>
+    </row>
+    <row r="680" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B680" s="15"/>
+      <c r="C680" s="15"/>
+      <c r="D680" s="15"/>
+      <c r="E680" s="15"/>
+    </row>
+    <row r="681" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B681" s="15"/>
+      <c r="C681" s="15"/>
+      <c r="D681" s="15"/>
+      <c r="E681" s="15"/>
+    </row>
+    <row r="682" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B682" s="15"/>
+      <c r="C682" s="15"/>
+      <c r="D682" s="15"/>
+      <c r="E682" s="15"/>
+    </row>
+    <row r="683" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B683" s="15"/>
+      <c r="C683" s="15"/>
+      <c r="D683" s="15"/>
+      <c r="E683" s="15"/>
+    </row>
+    <row r="684" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B684" s="15"/>
+      <c r="C684" s="15"/>
+      <c r="D684" s="15"/>
+      <c r="E684" s="15"/>
+    </row>
+    <row r="685" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B685" s="15"/>
+      <c r="C685" s="15"/>
+      <c r="D685" s="15"/>
+      <c r="E685" s="15"/>
+    </row>
+    <row r="686" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B686" s="15"/>
+      <c r="C686" s="15"/>
+      <c r="D686" s="15"/>
+      <c r="E686" s="15"/>
+    </row>
+    <row r="687" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B687" s="15"/>
+      <c r="C687" s="15"/>
+      <c r="D687" s="15"/>
+      <c r="E687" s="15"/>
+    </row>
+    <row r="688" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B688" s="15"/>
+      <c r="C688" s="15"/>
+      <c r="D688" s="15"/>
+      <c r="E688" s="15"/>
+    </row>
+    <row r="689" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B689" s="15"/>
+      <c r="C689" s="15"/>
+      <c r="D689" s="15"/>
+      <c r="E689" s="15"/>
+    </row>
+    <row r="690" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B690" s="15"/>
+      <c r="C690" s="15"/>
+      <c r="D690" s="15"/>
+      <c r="E690" s="15"/>
+    </row>
+    <row r="691" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B691" s="15"/>
+      <c r="C691" s="15"/>
+      <c r="D691" s="15"/>
+      <c r="E691" s="15"/>
+    </row>
+    <row r="692" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B692" s="15"/>
+      <c r="C692" s="15"/>
+      <c r="D692" s="15"/>
+      <c r="E692" s="15"/>
+    </row>
+    <row r="693" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B693" s="15"/>
+      <c r="C693" s="15"/>
+      <c r="D693" s="15"/>
+      <c r="E693" s="15"/>
+    </row>
+    <row r="694" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B694" s="15"/>
+      <c r="C694" s="15"/>
+      <c r="D694" s="15"/>
+      <c r="E694" s="15"/>
+    </row>
+    <row r="695" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B695" s="15"/>
+      <c r="C695" s="15"/>
+      <c r="D695" s="15"/>
+      <c r="E695" s="15"/>
+    </row>
+    <row r="696" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B696" s="15"/>
+      <c r="C696" s="15"/>
+      <c r="D696" s="15"/>
+      <c r="E696" s="15"/>
+    </row>
+    <row r="697" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B697" s="15"/>
+      <c r="C697" s="15"/>
+      <c r="D697" s="15"/>
+      <c r="E697" s="15"/>
+    </row>
+    <row r="698" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B698" s="15"/>
+      <c r="C698" s="15"/>
+      <c r="D698" s="15"/>
+      <c r="E698" s="15"/>
+    </row>
+    <row r="699" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B699" s="15"/>
+      <c r="C699" s="15"/>
+      <c r="D699" s="15"/>
+      <c r="E699" s="15"/>
+    </row>
+    <row r="700" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B700" s="15"/>
+      <c r="C700" s="15"/>
+      <c r="D700" s="15"/>
+      <c r="E700" s="15"/>
+    </row>
+    <row r="701" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B701" s="15"/>
+      <c r="C701" s="15"/>
+      <c r="D701" s="15"/>
+      <c r="E701" s="15"/>
+    </row>
+    <row r="702" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B702" s="15"/>
+      <c r="C702" s="15"/>
+      <c r="D702" s="15"/>
+      <c r="E702" s="15"/>
+    </row>
+    <row r="703" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B703" s="15"/>
+      <c r="C703" s="15"/>
+      <c r="D703" s="15"/>
+      <c r="E703" s="15"/>
+    </row>
+    <row r="704" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B704" s="15"/>
+      <c r="C704" s="15"/>
+      <c r="D704" s="15"/>
+      <c r="E704" s="15"/>
+    </row>
+    <row r="705" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B705" s="15"/>
+      <c r="C705" s="15"/>
+      <c r="D705" s="15"/>
+      <c r="E705" s="15"/>
+    </row>
+    <row r="706" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B706" s="15"/>
+      <c r="C706" s="15"/>
+      <c r="D706" s="15"/>
+      <c r="E706" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,6 +6546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9517A7-B6DB-4F8D-8F71-450813E09869}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F256-3B44-438C-B09D-A5A5EBB93BAD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3492,7 +6571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152586C-A782-4C8C-BD4A-33A7E12CE8F9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3507,16 +6586,2815 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC1BB6-B019-40E0-AB58-E33C7A1DD0AE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="9"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="9"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="9"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="9"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="9"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="9"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="9"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="9"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="9"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="9"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="9"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="9"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="9"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="9"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="9"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="9"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="9"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="9"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="9"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="9"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="9"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="9"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="9"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="9"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="9"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="9"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="9"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="9"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="9"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="9"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="9"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="9"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="9"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="9"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="9"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="9"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="9"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="9"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="9"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="9"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="9"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="9"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="9"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="9"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="9"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="9"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="9"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="9"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="9"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="9"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="9"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="9"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="9"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="9"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="9"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="9"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="9"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="9"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="9"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="9"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="9"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="9"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="9"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="9"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="9"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="9"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="9"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="9"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="9"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="9"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="9"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="9"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="9"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="9"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="9"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="9"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="9"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="9"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="9"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="9"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="9"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="9"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="9"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="9"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="9"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="9"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="9"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="9"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="9"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="9"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="9"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="9"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="9"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="9"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="9"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="9"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="9"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="9"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="9"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="9"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="9"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="9"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="9"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="9"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="9"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="9"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="9"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="9"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="9"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="9"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="9"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="9"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="9"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="9"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="9"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="9"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="9"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="9"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="9"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="9"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="9"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="9"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="9"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="9"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="9"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="9"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="9"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="9"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="9"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="9"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="9"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="9"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="9"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="9"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="9"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="9"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="9"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="9"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="9"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="9"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="9"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="9"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="9"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="9"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="9"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="9"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="9"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="9"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="9"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="9"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="9"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="9"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="9"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="9"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="9"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="9"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="9"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="9"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="9"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="9"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="9"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="9"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="9"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="9"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="9"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="9"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="9"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="9"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="9"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="9"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="9"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="9"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="9"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="9"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="9"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="9"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="9"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="9"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="9"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="9"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="9"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="9"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="9"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="9"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="9"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="9"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="9"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="9"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="9"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="9"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="9"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="9"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="9"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="9"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="9"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="9"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="9"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="9"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="9"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="9"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="9"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="9"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="9"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="9"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="9"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="9"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="9"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="9"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="9"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="9"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="9"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="9"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="9"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="9"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="9"/>
+      <c r="B323" s="12"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="9"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="9"/>
+      <c r="B325" s="12"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="9"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="9"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="9"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="9"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="9"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="9"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="9"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="9"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="9"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="9"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="9"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="9"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="9"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="9"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="9"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="9"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="9"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="9"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="9"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="9"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="9"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="9"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="9"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="9"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="9"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="9"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="9"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="9"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="12"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="12"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="12"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B372" s="12"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="12"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="12"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="12"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="12"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B377" s="12"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B378" s="12"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B379" s="12"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B380" s="12"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="12"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B382" s="12"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B383" s="12"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B384" s="12"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B386" s="12"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B387" s="12"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B388" s="12"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="12"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B390" s="12"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B391" s="12"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="12"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="12"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B394" s="12"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B395" s="12"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B396" s="12"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B397" s="12"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="12"/>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B398" s="12"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B399" s="12"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B400" s="12"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="12"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="12"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="12"/>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="12"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="12"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69AAC9D-A035-4D60-9683-072CF093C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4B758-8110-4E70-8225-81525DEE761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliography" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -282,12 +282,114 @@
 13) Max CoT = 0.32
 14) In this book you can also find information about Denise robot</t>
   </si>
+  <si>
+    <t>22.02.01</t>
+  </si>
+  <si>
+    <t>Vanessa F. Hsu Chen</t>
+  </si>
+  <si>
+    <t>Honda ASIMO</t>
+  </si>
+  <si>
+    <t>Frontal plane oscillations</t>
+  </si>
+  <si>
+    <t>Knees</t>
+  </si>
+  <si>
+    <t>Mechansms</t>
+  </si>
+  <si>
+    <t>Used for</t>
+  </si>
+  <si>
+    <t>Rimless Wheel</t>
+  </si>
+  <si>
+    <t>Suction cups</t>
+  </si>
+  <si>
+    <t>The suction cups make the legs lock when  the swing forward, and the through a carefully tuned air valve, eventually release at the right time.</t>
+  </si>
+  <si>
+    <t>Mechanical latch</t>
+  </si>
+  <si>
+    <t>Used for knee locking mechanism</t>
+  </si>
+  <si>
+    <t>Possitves</t>
+  </si>
+  <si>
+    <t>Negatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean design that minimizes actuation in the overal robot
+</t>
+  </si>
+  <si>
+    <t>This design requires the foot to go past the straight-legged position
+Inserts an inherently loose knee
+Complicated design</t>
+  </si>
+  <si>
+    <t>Electromagnets</t>
+  </si>
+  <si>
+    <t>Use of electromagnets in order to keep in the knee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space - force ratio problems
+</t>
+  </si>
+  <si>
+    <t>Electromagnetic clutches</t>
+  </si>
+  <si>
+    <t>Clutches placed on the side of each knee. Use of suction caps to eliminate the signal delay of the clutches.</t>
+  </si>
+  <si>
+    <t>PlastiDip multipurbose rubber</t>
+  </si>
+  <si>
+    <t>Coating, which claims to be flexible, durable and to provide grip</t>
+  </si>
+  <si>
+    <t>Cable rail</t>
+  </si>
+  <si>
+    <t>Used for safety of the robot when falling</t>
+  </si>
+  <si>
+    <t>Infrared Cameras</t>
+  </si>
+  <si>
+    <t>Used for motion capture. The subject has markers with reflective material placed on multiple points</t>
+  </si>
+  <si>
+    <t>Elimination of noisy data. 
+The motion capture system can calibrate the markers real data</t>
+  </si>
+  <si>
+    <t>In this thesis you can find: 
+1) Conservative walking explanation.  Smaller polygon of support leads considerable motion constrain. As a result they have high energy consumption. Comparison with dynamic stability. (Allows the system to have the ground projection of center of mass to leave the support polygon as long as it re-stabilizes again before falling over
+2) Explanation of passive dynamic walking
+3) Uses parameter estimation of a robot build to match the kneed walker
+4) Explanation of online learning controller of Tedrake (Reinforcement learning) ( The control policy is approximated by gradient descent method. Desired behavior is stable motion in the frontal plane)
+5) 1:5 Lower vs Uper leg mass in order the swing leg to bend the knee as it swings
+6) Uses global stability analysis: Basin of attraction
+7) Use of square aluminum tube for the upper leg. Use of Garolite for the lower legs
+8) Knee locking methods study.
+9) Insertion of switches in order to activate - deactivate the knee lock
+10) Use of cameras as motion sensors for the passive robot. Data parsing using matlab and noise filtering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +421,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -346,12 +461,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,8 +512,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,6 +1162,187 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1183342</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2277453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44393EE-4489-F290-4465-D968A336D46D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7297271" y="18386612"/>
+          <a:ext cx="1039906" cy="2116088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1225762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3DC689-C2BC-841B-1188-9780696D69AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="1219200"/>
+          <a:ext cx="845820" cy="1088602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1022863</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1603789</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1318261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C006571A-1BD4-5E2A-5269-2B92F5F4842D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9282943" y="1135381"/>
+          <a:ext cx="580926" cy="1264920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806835</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1089661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED82884E-B56C-BEDA-7AB0-B5E5A5DFEC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14706601" y="3093721"/>
+          <a:ext cx="730634" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1301,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,9 +1781,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:6" ht="348" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
@@ -1852,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA8682-672A-4E95-AC5A-8804F6AFB6B8}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,6 +2215,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1908,7 +2235,7 @@
   <dimension ref="A1:E706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6573,16 +6900,113 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152586C-A782-4C8C-BD4A-33A7E12CE8F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="46.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6591,7 +7015,7 @@
   <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6631,24 +7055,38 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>

--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4B758-8110-4E70-8225-81525DEE761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3D9FE-E355-44D8-9959-046DD3238CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,9 @@
 7) Use of square aluminum tube for the upper leg. Use of Garolite for the lower legs
 8) Knee locking methods study.
 9) Insertion of switches in order to activate - deactivate the knee lock
-10) Use of cameras as motion sensors for the passive robot. Data parsing using matlab and noise filtering</t>
+10) Use of cameras as motion sensors for the passive robot. Data parsing using matlab and noise filtering
+11) Parameters estimation using linear least-squares estimator (LLSE) method
+12)  Indentification of problems such as, Mismatch in the position of the outer feet, Delayed knee lock, Hyper - extension of the leg.</t>
   </si>
 </sst>
 </file>
@@ -512,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1206,6 +1208,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1264024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2704437</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1264024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1982B6-AC17-9D29-72AC-515F62E09F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8417859" y="18395577"/>
+          <a:ext cx="1440413" cy="1093694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1246093</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1335742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2187388</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2682379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE47E37B-90F6-D4DE-941C-D8723E283A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8399928" y="19560989"/>
+          <a:ext cx="941295" cy="1346637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2268071</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1353671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3149862</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2653553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F7CAC2-93D3-D9BD-EC8E-645FE946FC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9421906" y="19578918"/>
+          <a:ext cx="881791" cy="1299882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1781,7 +1915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="348" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
@@ -6911,52 +7045,52 @@
     <col min="1" max="1" width="26.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="46.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="46.44140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6964,14 +7098,14 @@
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6979,11 +7113,11 @@
       <c r="A5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6991,8 +7125,8 @@
       <c r="A6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Bibliography/BibliographyResearch.xlsx
+++ b/Bibliography/BibliographyResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BipedProject\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3D9FE-E355-44D8-9959-046DD3238CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9E9B6-F535-472D-8948-5749A23EAB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliography" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -283,9 +283,6 @@
 14) In this book you can also find information about Denise robot</t>
   </si>
   <si>
-    <t>22.02.01</t>
-  </si>
-  <si>
     <t>Vanessa F. Hsu Chen</t>
   </si>
   <si>
@@ -385,6 +382,47 @@
 10) Use of cameras as motion sensors for the passive robot. Data parsing using matlab and noise filtering
 11) Parameters estimation using linear least-squares estimator (LLSE) method
 12)  Indentification of problems such as, Mismatch in the position of the outer feet, Delayed knee lock, Hyper - extension of the leg.</t>
+  </si>
+  <si>
+    <t>22.02.03</t>
+  </si>
+  <si>
+    <t>Philip Hatzitheodorou</t>
+  </si>
+  <si>
+    <t>Biped with knees</t>
+  </si>
+  <si>
+    <t>VanessaFHsuChenThesis.pdf</t>
+  </si>
+  <si>
+    <t>Aldebaran Robotic's NAO</t>
+  </si>
+  <si>
+    <t>SAFFiR (Virginia Teck)</t>
+  </si>
+  <si>
+    <t>Rope transmition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sandia's WANDERERER</t>
+  </si>
+  <si>
+    <t>Boston Dynamics Atlas</t>
+  </si>
+  <si>
+    <t>LUIGI (Lght Unactuated Imitator for Gait Insights)</t>
+  </si>
+  <si>
+    <t>DexterIII</t>
+  </si>
+  <si>
+    <t>In this thesis you can find:
+1)  Luigi's upper thigs are divided into cap and body. Use of abs for implementation
+2) Pattela and shank into one peace.</t>
   </si>
 </sst>
 </file>
@@ -1340,6 +1378,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>986118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99C996E-ECDD-CFB2-6272-A035E09A2E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153836" y="23442707"/>
+          <a:ext cx="625300" cy="986117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1362636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1037200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B6074C-3127-B69A-DEF9-230F162FF864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7960659" y="23442706"/>
+          <a:ext cx="654424" cy="1037200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1469,6 +1595,50 @@
         <a:xfrm>
           <a:off x="14706601" y="3093721"/>
           <a:ext cx="730634" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1177461</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>968188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7557D18-0FD1-3AD3-73E1-2FC91E1F4983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14666259" y="4285130"/>
+          <a:ext cx="1123673" cy="932329"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,7 +1924,7 @@
     <col min="1" max="1" width="30.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="54.77734375" style="10" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1916,19 +2086,32 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="13"/>
@@ -2294,24 +2477,25 @@
     <hyperlink ref="F7" r:id="rId6" display="Consept/NoKnees/Vasileiou_Thesis_2019.pdf" xr:uid="{42DB3B71-B4CF-498E-A846-5EACFC5F9B67}"/>
     <hyperlink ref="F8" r:id="rId7" display="Manufacturers/CollinsRuinaPassiveLegsKnees.pdf" xr:uid="{E03437DA-8456-4E3D-A8B2-249AE9844B57}"/>
     <hyperlink ref="F9" r:id="rId8" display="Manufacturers/WisseBookMikeDesign.pdf" xr:uid="{6C7A0374-5A96-4F7A-A122-2AA6BCDAE8E4}"/>
+    <hyperlink ref="F10" r:id="rId9" display="Manufacturers/VanessaFHsuChenThesis.pdf" xr:uid="{FA22FBAE-4BC2-4EED-88B6-8494A8D03E65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA8682-672A-4E95-AC5A-8804F6AFB6B8}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -2351,12 +2535,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7034,10 +7248,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152586C-A782-4C8C-BD4A-33A7E12CE8F9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7053,20 +7267,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>4</v>
@@ -7075,10 +7289,10 @@
     <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -7087,47 +7301,56 @@
     </row>
     <row r="3" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="E7" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7191,10 +7414,10 @@
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7202,10 +7425,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7213,13 +7436,13 @@
     </row>
     <row r="5" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
